--- a/Practica_Clase/Math/Planilla de Métricas_Matriz.xlsx
+++ b/Practica_Clase/Math/Planilla de Métricas_Matriz.xlsx
@@ -914,27 +914,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1082,7 +1062,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4722222222222654E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1468,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1552,11 +1532,15 @@
       <c r="B4" s="45">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="33" t="str">
+      <c r="C4" s="46">
+        <v>0.34375</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E4" s="33">
         <f>IFERROR(IF(OR(ISBLANK(C4),ISBLANK(D4)),"Completar",IF(D4&gt;=C4,D4-C4,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
@@ -1772,11 +1756,15 @@
       <c r="G13" s="48">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="20" t="str">
+      <c r="H13" s="49">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" ref="J13:J16" si="1">IFERROR(IF(OR(ISBLANK(H13),ISBLANK(I13)),"Completar",IF(I13&gt;=H13,I13-H13,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>3.4722222222221544E-3</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="52"/>
@@ -1805,11 +1793,15 @@
       <c r="G14" s="48">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="20" t="str">
+      <c r="H14" s="49">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>Completar</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="52"/>
@@ -1838,11 +1830,15 @@
       <c r="G15" s="48">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="20" t="str">
+      <c r="H15" s="49">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>Completar</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="52"/>
@@ -1871,11 +1867,15 @@
       <c r="G16" s="48">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="20" t="str">
+      <c r="H16" s="49">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>Completar</v>
+        <v>1.388888888888884E-3</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
@@ -1904,11 +1904,15 @@
       <c r="G17" s="48">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="20" t="str">
+      <c r="H17" s="49">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I17" s="50">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" ref="J17:J20" si="3">IFERROR(IF(OR(ISBLANK(H17),ISBLANK(I17)),"Completar",IF(I17&gt;=H17,I17-H17,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>2.0833333333333259E-3</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="52"/>
@@ -2003,11 +2007,15 @@
       <c r="G20" s="48">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="20" t="str">
+      <c r="H20" s="49">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I20" s="50">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="3"/>
-        <v>Completar</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="52"/>
@@ -2036,11 +2044,15 @@
       <c r="G21" s="48">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="20" t="str">
+      <c r="H21" s="49">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J21" s="20">
         <f t="shared" ref="J21" si="7">IFERROR(IF(OR(ISBLANK(H21),ISBLANK(I21)),"Completar",IF(I21&gt;=H21,I21-H21,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
@@ -2296,13 +2308,13 @@
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="62"/>
-      <c r="E33" s="43" t="str">
+      <c r="E33" s="43">
         <f>E4</f>
-        <v>Completar</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="F33" s="44" t="str">
         <f t="shared" ref="F33:F37" si="9">IF(E33="Completar",E33,IFERROR(E33/$E$38,"Error"))</f>
-        <v>Completar</v>
+        <v>Error</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="37"/>
@@ -2502,10 +2514,10 @@
     <mergeCell ref="E29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Practica_Clase/Math/Planilla de Métricas_Matriz.xlsx
+++ b/Practica_Clase/Math/Planilla de Métricas_Matriz.xlsx
@@ -802,53 +802,103 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -858,56 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1467,29 +1467,29 @@
       <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1515,15 +1515,15 @@
       <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="14"/>
       <c r="P3" s="9"/>
     </row>
@@ -1542,15 +1542,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C4),ISBLANK(D4)),"Completar",IF(D4&gt;=C4,D4-C4,"Error")),"Error")</f>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
       <c r="O4" s="15"/>
       <c r="P4" s="11"/>
     </row>
@@ -1574,12 +1574,12 @@
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1605,15 +1605,15 @@
       <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
       <c r="O7" s="14"/>
       <c r="P7" s="9"/>
     </row>
@@ -1626,15 +1626,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C8),ISBLANK(D8)),"Completar",IF(D8&gt;=C8,D8-C8,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="15"/>
       <c r="P8" s="11"/>
     </row>
@@ -1658,50 +1658,50 @@
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="63" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65" t="s">
+      <c r="L11" s="83"/>
+      <c r="M11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="66" t="s">
+      <c r="N11" s="85" t="s">
         <v>2</v>
       </c>
       <c r="O11" s="14"/>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="18" t="s">
         <v>13</v>
       </c>
@@ -1734,8 +1734,8 @@
       <c r="L12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="14"/>
       <c r="P12" s="9"/>
     </row>
@@ -1745,11 +1745,11 @@
         <f t="shared" ref="B13:B21" si="0">ROW($B13)-12</f>
         <v>1</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="47">
         <v>10</v>
       </c>
@@ -1782,11 +1782,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="47">
         <v>10</v>
       </c>
@@ -1819,11 +1819,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="47">
         <v>10</v>
       </c>
@@ -1856,11 +1856,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="47">
         <v>10</v>
       </c>
@@ -1893,11 +1893,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="47">
         <v>5</v>
       </c>
@@ -1930,22 +1930,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="47">
         <v>8</v>
       </c>
       <c r="G18" s="48">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="20" t="str">
+      <c r="H18" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I18" s="50">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J18" s="20">
         <f t="shared" ref="J18" si="5">IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"Completar",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="52"/>
@@ -1963,11 +1967,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="47">
         <v>8</v>
       </c>
@@ -1996,11 +2000,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="47">
         <v>8</v>
       </c>
@@ -2033,11 +2037,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="47">
         <v>5</v>
       </c>
@@ -2066,12 +2070,12 @@
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="26">
         <f>SUM(F13:F21)</f>
         <v>74</v>
@@ -2124,12 +2128,12 @@
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2206,33 +2210,33 @@
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="74">
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="77">
         <f>M22</f>
         <v>0</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -2243,16 +2247,16 @@
       <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="76">
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="75">
         <f>IF(M22=0,0,IFERROR(M22/(N22*24),"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F30" s="77"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -2263,16 +2267,16 @@
       <c r="N30" s="39"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="74">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="77">
         <f>IF(K22=0,0,IFERROR(ROUNDUP(K22/(M22/100),0),"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -2283,16 +2287,16 @@
       <c r="N31" s="39"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="80">
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="56">
         <f>IF(K22=0,0,IFERROR(K22/M22,"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="81"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="36"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -2303,11 +2307,11 @@
       <c r="N32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="43">
         <f>E4</f>
         <v>3.4722222222222654E-3</v>
@@ -2326,11 +2330,11 @@
       <c r="N33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="43" t="str">
         <f>E8</f>
         <v>Completar</v>
@@ -2349,11 +2353,11 @@
       <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="43" t="str">
         <f>E26</f>
         <v>Completar</v>
@@ -2372,11 +2376,11 @@
       <c r="N35" s="39"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="43">
         <f>L22</f>
         <v>0</v>
@@ -2395,11 +2399,11 @@
       <c r="N36" s="39"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="43" t="str">
         <f>J22</f>
         <v>Error</v>
@@ -2418,16 +2422,16 @@
       <c r="N37" s="39"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="82" t="str">
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="61" t="str">
         <f>IF(COUNTIF(E33:E37,"Error")=0,SUM(E33:E37),"Error")</f>
         <v>Error</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="40"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
@@ -2470,6 +2474,32 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="42">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E38:F38"/>
@@ -2486,32 +2516,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
